--- a/public/files/template/inventory/lap_mutasibarang.xlsx
+++ b/public/files/template/inventory/lap_mutasibarang.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>REKAPITULASI DAFTAR MUTASI MILIK DAERAH</t>
   </si>
@@ -32,9 +32,6 @@
     <t xml:space="preserve">DINAS KESEHATAN </t>
   </si>
   <si>
-    <t>TAHUN [b.tahun]</t>
-  </si>
-  <si>
     <t>[b.kib]</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>[a.jml_bertambah]</t>
   </si>
   <si>
-    <t>[a.pkt]</t>
-  </si>
-  <si>
     <t>[a.harga]</t>
   </si>
   <si>
@@ -120,6 +114,24 @@
   </si>
   <si>
     <t>[a.no;block=tbs:row]</t>
+  </si>
+  <si>
+    <t>Nama Puskesmas</t>
+  </si>
+  <si>
+    <t>: [b.nama_puskesmas]</t>
+  </si>
+  <si>
+    <t>[a.satuan]</t>
+  </si>
+  <si>
+    <t>[a.satuantmb]</t>
+  </si>
+  <si>
+    <t>[a.hargatmb]</t>
+  </si>
+  <si>
+    <t>TAHUN [b.tahun] s.d [b.tahun1]</t>
   </si>
 </sst>
 </file>
@@ -194,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -212,6 +224,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -221,7 +237,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,66 +576,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="B3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -635,98 +654,98 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="6"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="K8" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="4">
         <v>1</v>
       </c>
@@ -739,97 +758,90 @@
       <c r="E9" s="4">
         <v>4</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
         <v>5</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>6</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="6">
         <v>7</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="6">
         <v>8</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="6">
         <v>9</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="6">
         <v>10</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="6">
         <v>11</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="6">
         <v>12</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="6">
         <v>13</v>
       </c>
-      <c r="O9" s="4">
+      <c r="P9" s="6">
         <v>14</v>
-      </c>
-      <c r="P9" s="4">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="H10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="10" t="s">
+      <c r="N10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="O10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="10" t="s">
+      <c r="P10" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B5:P5"/>
+  <mergeCells count="15">
     <mergeCell ref="B1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -839,6 +851,12 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B5:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/files/template/inventory/lap_mutasibarang.xlsx
+++ b/public/files/template/inventory/lap_mutasibarang.xlsx
@@ -206,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -225,17 +225,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,67 +585,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
@@ -654,69 +663,69 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8" t="s">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="5" t="s">
         <v>14</v>
       </c>
@@ -741,11 +750,11 @@
       <c r="N8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="4">
         <v>1</v>
       </c>
@@ -803,45 +812,50 @@
       <c r="D10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="13" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B5:P5"/>
     <mergeCell ref="B1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -852,11 +866,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="B5:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
